--- a/holiday_list.xlsx
+++ b/holiday_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashis\OneDrive\Desktop\Anchored_Vwap_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB820A7-943A-49F9-AF61-202AAB5C4769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B6DF6E-7079-4C5C-880C-4DD7ED169BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="675" windowWidth="21600" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -720,7 +720,7 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,10 +823,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="2">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
